--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail10 Features.xlsx
@@ -4010,7 +4010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4021,29 +4021,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4064,115 +4062,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4189,72 +4177,66 @@
         <v>7.750625404072651e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.33379224906307</v>
+        <v>3.939909005091934e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.934556677911195</v>
+        <v>2.607890544054197e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.939909005091934e-07</v>
+        <v>0.07327535420043114</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.607890544054197e-06</v>
+        <v>0.2032315650780735</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.07327535420043114</v>
+        <v>0.04665406057355793</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2032315650780735</v>
+        <v>1.828408302644815</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04665406057355793</v>
+        <v>1.8282563050395</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.777916210297829</v>
+        <v>3.998193657228581</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.8282563050395</v>
+        <v>1.385313022061402e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.998193657228581</v>
+        <v>127441959.490767</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.385313022061402e-15</v>
+        <v>9.295944781603345e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>127441959.490767</v>
+        <v>22.49949639191248</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.295944781603345e-07</v>
+        <v>0.0001416052801386495</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>22.49949639191248</v>
+        <v>10.22062210688339</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001416052801386495</v>
+        <v>1.118861950236549</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.22062210688339</v>
+        <v>0.01479224563041992</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.118861950236549</v>
+        <v>2.932957351661465</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01479224563041992</v>
+        <v>0.9593476562445843</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.932957351661465</v>
+        <v>1.630691511589454</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9593476562445843</v>
+        <v>3</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.630691511589454</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2552177773888615</v>
       </c>
     </row>
@@ -4269,72 +4251,66 @@
         <v>6.988311869182312e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.14960056512015</v>
+        <v>3.552009091781829e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.424539103418645</v>
+        <v>2.613246490226432e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.552009091781829e-07</v>
+        <v>0.07212346520127993</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.613246490226432e-06</v>
+        <v>0.2169432770725605</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.07212346520127993</v>
+        <v>0.05224932238591191</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2169432770725605</v>
+        <v>1.827544200498919</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05224932238591191</v>
+        <v>1.795221251316583</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.772825565575971</v>
+        <v>3.751597145274735</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.795221251316583</v>
+        <v>1.573414597015403e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.751597145274735</v>
+        <v>115313335.2552897</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.573414597015403e-15</v>
+        <v>1.027360867426879e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>115313335.2552897</v>
+        <v>20.92195396259189</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.027360867426879e-06</v>
+        <v>0.0001119105783010041</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>20.92195396259189</v>
+        <v>9.182937985092495</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001119105783010041</v>
+        <v>1.188338817609382</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.182937985092495</v>
+        <v>0.00943701059877159</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.188338817609382</v>
+        <v>3.249264724475735</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.00943701059877159</v>
+        <v>0.9591858117990197</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.249264724475735</v>
+        <v>1.599766103793563</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9591858117990197</v>
+        <v>3</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.599766103793563</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2846918930861126</v>
       </c>
     </row>
@@ -4349,72 +4325,66 @@
         <v>6.333845135574151e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.9406034344266061</v>
+        <v>3.2016166885225e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.8024711945623642</v>
+        <v>2.617970634426255e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.2016166885225e-07</v>
+        <v>0.06963371818478693</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.617970634426255e-06</v>
+        <v>0.2317445361914654</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.06963371818478693</v>
+        <v>0.05853554322129211</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2317445361914654</v>
+        <v>1.82657371732134</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05853554322129211</v>
+        <v>1.784540640177649</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.774380156045662</v>
+        <v>3.72462511297207</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.784540640177649</v>
+        <v>1.596285005191958e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.72462511297207</v>
+        <v>117159625.5312058</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.596285005191958e-15</v>
+        <v>1.01587626177698e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>117159625.5312058</v>
+        <v>21.91121114491671</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.01587626177698e-06</v>
+        <v>0.0001117002490131409</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>21.91121114491671</v>
+        <v>10.44191660432719</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001117002490131409</v>
+        <v>1.641973469524098</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.44191660432719</v>
+        <v>0.01217908276972632</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.641973469524098</v>
+        <v>3.434153235238199</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01217908276972632</v>
+        <v>0.9576746288578817</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.434153235238199</v>
+        <v>1.590972209255055</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9576746288578817</v>
+        <v>3</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.590972209255055</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3182462023490544</v>
       </c>
     </row>
@@ -4429,72 +4399,66 @@
         <v>5.786640351557711e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.7289843411187776</v>
+        <v>2.8552354909126e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.1488828634454888</v>
+        <v>2.622060992909145e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.8552354909126e-07</v>
+        <v>0.06515141782427106</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.622060992909145e-06</v>
+        <v>0.2449656116299785</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.06515141782427106</v>
+        <v>0.06422943426381543</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2449656116299785</v>
+        <v>1.821724192580328</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.06422943426381543</v>
+        <v>1.751130003769269</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.763270759058844</v>
+        <v>3.765173834400844</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.751130003769269</v>
+        <v>1.562088029887192e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.765173834400844</v>
+        <v>117724538.5327952</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.562088029887192e-15</v>
+        <v>1.008027032151347e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>117724538.5327952</v>
+        <v>21.64908262355267</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.008027032151347e-06</v>
+        <v>0.0001189920855836531</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>21.64908262355267</v>
+        <v>10.91272328711075</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001189920855836531</v>
+        <v>1.641790233735797</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.91272328711075</v>
+        <v>0.01417047350709435</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.641790233735797</v>
+        <v>3.421704516905741</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01417047350709435</v>
+        <v>0.9566030880917824</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.421704516905741</v>
+        <v>1.63260044959025</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9566030880917824</v>
+        <v>3</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.63260044959025</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3168880517500304</v>
       </c>
     </row>
@@ -4509,72 +4473,66 @@
         <v>5.356586135625399e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.5601803443205807</v>
+        <v>2.5079181557801e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.3521958090533039</v>
+        <v>2.625498339525735e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.5079181557801e-07</v>
+        <v>0.05793851282293844</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.625498339525735e-06</v>
+        <v>0.2545240999219305</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.05793851282293844</v>
+        <v>0.06811207030108558</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2545240999219305</v>
+        <v>1.82838633320006</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.06811207030108558</v>
+        <v>1.728869601295756</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.769962134145329</v>
+        <v>3.863452413371245</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.728869601295756</v>
+        <v>1.483625993430906e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.863452413371245</v>
+        <v>125963965.8943962</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.483625993430906e-15</v>
+        <v>9.44519102826352e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>125963965.8943962</v>
+        <v>23.54057599193088</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>9.44519102826352e-07</v>
+        <v>0.0001029370038511976</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>23.54057599193088</v>
+        <v>8.780563560484593</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001029370038511976</v>
+        <v>1.373303815756779</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.780563560484593</v>
+        <v>0.007936267637535193</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.373303815756779</v>
+        <v>3.377512375400898</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007936267637535193</v>
+        <v>0.9553473429112216</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.377512375400898</v>
+        <v>1.611539697852454</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9553473429112216</v>
+        <v>3</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.611539697852454</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2936478395807074</v>
       </c>
     </row>
@@ -4589,72 +4547,66 @@
         <v>5.044529882131304e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.4715701650726842</v>
+        <v>2.171238180048461e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.5651029092812507</v>
+        <v>2.628263870578541e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.171238180048461e-07</v>
+        <v>0.04824308527071081</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.628263870578541e-06</v>
+        <v>0.2595246597995243</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.04824308527071081</v>
+        <v>0.0696523716867273</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2595246597995243</v>
+        <v>1.83298625245409</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0696523716867273</v>
+        <v>1.692663150220894</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.768542766078278</v>
+        <v>4.092796759828001</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.692663150220894</v>
+        <v>1.322011431110269e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.092796759828001</v>
+        <v>139692178.946457</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.322011431110269e-15</v>
+        <v>8.5228802127355e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>139692178.946457</v>
+        <v>25.79760528894366</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>8.5228802127355e-07</v>
+        <v>0.0001211750948835974</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>25.79760528894366</v>
+        <v>9.108567707966769</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001211750948835974</v>
+        <v>1.149100218458754</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.108567707966769</v>
+        <v>0.01005341361167336</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.149100218458754</v>
+        <v>3.101220032038539</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01005341361167336</v>
+        <v>0.9556316919543986</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.101220032038539</v>
+        <v>1.593277790854346</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9556316919543986</v>
+        <v>6</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.593277790854346</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2714065641310813</v>
       </c>
     </row>
@@ -4669,72 +4621,66 @@
         <v>4.838378044525915e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.4637793698838211</v>
+        <v>1.860391479859847e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.5204515371949157</v>
+        <v>2.630376881567987e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.860391479859847e-07</v>
+        <v>0.03732889131815132</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.630376881567987e-06</v>
+        <v>0.2602853541519051</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03732889131815132</v>
+        <v>0.06911706950682195</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2602853541519051</v>
+        <v>1.833756061094547</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.06911706950682195</v>
+        <v>1.662746621902124</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.76802912436836</v>
+        <v>4.392532191953503</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.662746621902124</v>
+        <v>1.048655584373138e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.392532191953503</v>
+        <v>171696707.4842716</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.048655584373138e-15</v>
+        <v>6.909092849566321e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>171696707.4842716</v>
+        <v>30.91411427982553</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>6.909092849566321e-07</v>
+        <v>0.0001170532944098327</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>30.91411427982553</v>
+        <v>9.189438171172402</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001170532944098327</v>
+        <v>1.112138852910624</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.189438171172402</v>
+        <v>0.009884656034193601</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.112138852910624</v>
+        <v>3.111562546552311</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.009884656034193601</v>
+        <v>0.9560248548256588</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.111562546552311</v>
+        <v>1.64512170044791</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9560248548256588</v>
+        <v>12</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.64512170044791</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2875472820340209</v>
       </c>
     </row>
@@ -4749,72 +4695,66 @@
         <v>4.71664892741824e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.5047332373607246</v>
+        <v>1.860391479859847e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.3626998810441844</v>
+        <v>2.631898428851632e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.860391479859847e-07</v>
+        <v>0.02648622655320355</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.631898428851632e-06</v>
+        <v>0.2572677604999196</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.02648622655320355</v>
+        <v>0.06686447398696169</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2572677604999196</v>
+        <v>1.845825585044724</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.06686447398696169</v>
+        <v>1.815170739839879</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.787901022635942</v>
+        <v>4.247694565594282</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.815170739839879</v>
+        <v>9.716724963505007e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.247694565594282</v>
+        <v>188772569.805263</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>9.716724963505007e-16</v>
+        <v>6.312570832338155e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>188772569.805263</v>
+        <v>34.62563016400914</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>6.312570832338155e-07</v>
+        <v>0.0001043482420763785</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>34.62563016400914</v>
+        <v>10.00944658298193</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001043482420763785</v>
+        <v>1.458079125533001</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.00944658298193</v>
+        <v>0.01045454820601485</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.458079125533001</v>
+        <v>3.381032694341748</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01045454820601485</v>
+        <v>0.9573020604339659</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.381032694341748</v>
+        <v>1.616407268915107</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9573020604339659</v>
+        <v>12</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.616407268915107</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.3347875349201198</v>
       </c>
     </row>
@@ -5191,7 +5131,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.798307042507644</v>
+        <v>1.797867367599826</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.205083398069674</v>
@@ -5280,7 +5220,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.788761349232047</v>
+        <v>1.785949768478676</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.158691955921344</v>
@@ -5369,7 +5309,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.804650732207611</v>
+        <v>1.804748555008105</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.214564183960106</v>
@@ -5458,7 +5398,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.808545143889255</v>
+        <v>1.806651281465112</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.591236355679142</v>
@@ -5547,7 +5487,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.820917021847415</v>
+        <v>1.818801746574157</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.517966739699748</v>
@@ -5636,7 +5576,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.836992557481078</v>
+        <v>1.836241498040878</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.485599160513931</v>
@@ -5725,7 +5665,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.836702932486642</v>
+        <v>1.837813019595132</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.595464930790035</v>
@@ -5814,7 +5754,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.832637633472533</v>
+        <v>1.836826851193714</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.379961021200988</v>
@@ -5903,7 +5843,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.8267593913421</v>
+        <v>1.828823278384216</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.610702179503599</v>
@@ -5992,7 +5932,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.840793648807792</v>
+        <v>1.837905899291375</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.829993269967155</v>
@@ -6081,7 +6021,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.844225494512961</v>
+        <v>1.840279180835356</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.202369711370316</v>
@@ -6170,7 +6110,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.827018746413286</v>
+        <v>1.834546876459011</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.474542726382389</v>
@@ -6259,7 +6199,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.82748720512715</v>
+        <v>1.835044626283369</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.291024697663013</v>
@@ -6348,7 +6288,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.825891938231308</v>
+        <v>1.832504672371062</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.426263762424557</v>
@@ -6437,7 +6377,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.818348495595659</v>
+        <v>1.824898754102446</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.287982883099627</v>
@@ -6526,7 +6466,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.814158703566582</v>
+        <v>1.823273450366183</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.0351619786601</v>
@@ -6615,7 +6555,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.841729100196769</v>
+        <v>1.844723420691472</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.067876115229239</v>
@@ -6704,7 +6644,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.846921818284027</v>
+        <v>1.839032586371949</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.95738040334534</v>
@@ -6793,7 +6733,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.865124893010707</v>
+        <v>1.856917011529416</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.078801620184945</v>
@@ -6882,7 +6822,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.856779911998063</v>
+        <v>1.855128824163023</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.068677347722707</v>
@@ -6971,7 +6911,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.85585750307441</v>
+        <v>1.859620561762259</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.109335932514166</v>
@@ -7060,7 +7000,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.855135816327131</v>
+        <v>1.857806925804077</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.133486453858624</v>
@@ -7149,7 +7089,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.83534395636314</v>
+        <v>1.837895027866062</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.949324320016995</v>
@@ -7238,7 +7178,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.831376676842346</v>
+        <v>1.842584754938261</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.23241680637346</v>
@@ -7327,7 +7267,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.83169016018692</v>
+        <v>1.843284757704545</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.43766023357295</v>
@@ -7416,7 +7356,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.8625205389556</v>
+        <v>1.871463747646955</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.910701482897356</v>
@@ -7505,7 +7445,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.872864075673051</v>
+        <v>1.883018129846107</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.405167697151576</v>
@@ -7594,7 +7534,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.869460854729002</v>
+        <v>1.883074867867151</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.511590173930829</v>
@@ -7683,7 +7623,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.869171389592772</v>
+        <v>1.888529553137609</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.388159548558628</v>
@@ -7772,7 +7712,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.880931378070992</v>
+        <v>1.902809526616394</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.824557637534094</v>
@@ -7861,7 +7801,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.880928898671384</v>
+        <v>1.907506312038387</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.898627486055241</v>
@@ -7950,7 +7890,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.869295779392172</v>
+        <v>1.900784896080479</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.660010107947113</v>
@@ -8039,7 +7979,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.871317755837715</v>
+        <v>1.909452648903668</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.7779219035219</v>
@@ -8128,7 +8068,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.883386938972955</v>
+        <v>1.921941236561163</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.414855676590647</v>
@@ -8217,7 +8157,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.886976586211168</v>
+        <v>1.91907869406927</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.802678536118629</v>
@@ -8306,7 +8246,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.881170178776142</v>
+        <v>1.908524447327017</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.535399430554899</v>
@@ -8395,7 +8335,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.866254763800692</v>
+        <v>1.895683111336514</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.473766689531081</v>
@@ -8484,7 +8424,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.875603335189189</v>
+        <v>1.900314733090476</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.364840575280373</v>
@@ -8573,7 +8513,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.8904522113292</v>
+        <v>1.909027416041954</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.47092274560703</v>
@@ -8662,7 +8602,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.89130176767009</v>
+        <v>1.910808134703755</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.263230573760519</v>
@@ -8751,7 +8691,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.869688547550722</v>
+        <v>1.88322746694196</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.379521698181679</v>
@@ -8840,7 +8780,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.868413773176256</v>
+        <v>1.876893383411797</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.343954041747261</v>
@@ -8929,7 +8869,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.859628511634075</v>
+        <v>1.862868673442375</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.437387283386876</v>
@@ -9018,7 +8958,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.863171785423525</v>
+        <v>1.861522002956309</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.772306670752039</v>
@@ -9107,7 +9047,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.828068096073162</v>
+        <v>1.830458821427224</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.012961002981771</v>
@@ -9196,7 +9136,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.825765498541709</v>
+        <v>1.819980054758012</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.355951960531113</v>
@@ -9285,7 +9225,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.839358486682465</v>
+        <v>1.829638006380248</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.31920254170814</v>
@@ -9374,7 +9314,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.839264741827989</v>
+        <v>1.830397597733995</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.242735550385288</v>
@@ -9463,7 +9403,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.840611473719428</v>
+        <v>1.831406924972435</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.291371686397738</v>
@@ -9552,7 +9492,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.836533512957924</v>
+        <v>1.826084475393254</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.590566357830633</v>
@@ -9641,7 +9581,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.833321864284795</v>
+        <v>1.832180402210344</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.586289875729526</v>
@@ -9730,7 +9670,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.837382732115218</v>
+        <v>1.818591625713706</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.732589365371298</v>
@@ -9819,7 +9759,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.799079661849205</v>
+        <v>1.806986883975993</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.63445309905698</v>
@@ -10105,7 +10045,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.696336765923038</v>
+        <v>1.7107450577064</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.777923058703285</v>
@@ -10194,7 +10134,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.696421111863516</v>
+        <v>1.710827730012692</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.964871527593215</v>
@@ -10283,7 +10223,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.706936320875992</v>
+        <v>1.724720071283921</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.783995036983479</v>
@@ -10372,7 +10312,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.743060264079473</v>
+        <v>1.75676718574054</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.358229162295179</v>
@@ -10461,7 +10401,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.736139423405171</v>
+        <v>1.753504945870181</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.334339598468305</v>
@@ -10550,7 +10490,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.739750170421281</v>
+        <v>1.75914660866454</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.377275880931915</v>
@@ -10639,7 +10579,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.749170678436601</v>
+        <v>1.765217902289256</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.421433825135965</v>
@@ -10728,7 +10668,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.75274639812486</v>
+        <v>1.769578958403344</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.091494419379067</v>
@@ -10817,7 +10757,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.752908382114101</v>
+        <v>1.771476713427591</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.257940787499602</v>
@@ -10906,7 +10846,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.741546861781404</v>
+        <v>1.753466368504185</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.415654496721303</v>
@@ -10995,7 +10935,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.763833945879607</v>
+        <v>1.760591613408278</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.999273466516565</v>
@@ -11084,7 +11024,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.740009630186816</v>
+        <v>1.753065872759105</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.035179246419279</v>
@@ -11173,7 +11113,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.730036925622711</v>
+        <v>1.739981068920484</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.711700179460095</v>
@@ -11262,7 +11202,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.727543489795164</v>
+        <v>1.737217302523545</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.981624960475114</v>
@@ -11351,7 +11291,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.712528234381605</v>
+        <v>1.721087722550265</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.975742094394335</v>
@@ -11440,7 +11380,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.708608548495014</v>
+        <v>1.71850009224333</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.914373702432251</v>
@@ -11529,7 +11469,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.72632662704079</v>
+        <v>1.729135755757302</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.906310466203974</v>
@@ -11618,7 +11558,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.729776407830847</v>
+        <v>1.72603979703168</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.70943737188449</v>
@@ -11707,7 +11647,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.736364166707219</v>
+        <v>1.72688889774397</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.87175831404458</v>
@@ -11796,7 +11736,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.737258531494622</v>
+        <v>1.725124262340154</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.686978359514653</v>
@@ -11885,7 +11825,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.739858955576643</v>
+        <v>1.728326718941888</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.80004489664213</v>
@@ -11974,7 +11914,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.735005507864001</v>
+        <v>1.725373614572649</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.758225957170019</v>
@@ -12063,7 +12003,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.726245741034062</v>
+        <v>1.719439151137217</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.694577620778372</v>
@@ -12152,7 +12092,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.719228750575926</v>
+        <v>1.714701592493659</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.731359255318697</v>
@@ -12241,7 +12181,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.723201420346832</v>
+        <v>1.726858944633025</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.710843322639457</v>
@@ -12330,7 +12270,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.760310837764362</v>
+        <v>1.758472135549253</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.594588281250066</v>
@@ -12419,7 +12359,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.772040848425725</v>
+        <v>1.769450752161294</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.984162048341211</v>
@@ -12508,7 +12448,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.785288978317451</v>
+        <v>1.784938745297285</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.788624935095934</v>
@@ -12597,7 +12537,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.782520357135644</v>
+        <v>1.778298508217999</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.745103608243054</v>
@@ -12686,7 +12626,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.776367637831248</v>
+        <v>1.774475149252589</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.434301695647268</v>
@@ -12775,7 +12715,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.779633656737942</v>
+        <v>1.771537146279919</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.015039427027319</v>
@@ -12864,7 +12804,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.765601333493207</v>
+        <v>1.759189901316233</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.20061541907392</v>
@@ -12953,7 +12893,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.764021980793419</v>
+        <v>1.759363321176019</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.233042177247107</v>
@@ -13042,7 +12982,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.772434855700806</v>
+        <v>1.7708906338445</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.946825281552069</v>
@@ -13131,7 +13071,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.769167124338485</v>
+        <v>1.759148595826572</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.044759786857263</v>
@@ -13220,7 +13160,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.729041422389549</v>
+        <v>1.728926126489219</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.2013132715556</v>
@@ -13309,7 +13249,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.727987157953001</v>
+        <v>1.725709852652053</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.132121405466025</v>
@@ -13398,7 +13338,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.720711398455139</v>
+        <v>1.715728477886795</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.115698853405477</v>
@@ -13487,7 +13427,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.729519535033879</v>
+        <v>1.720677038738472</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.017685778526664</v>
@@ -13576,7 +13516,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.743057334695094</v>
+        <v>1.725140686348243</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.072118852975066</v>
@@ -13665,7 +13605,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.731149278645983</v>
+        <v>1.715298260062879</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.116988021408419</v>
@@ -13754,7 +13694,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.730860281427567</v>
+        <v>1.71591381504313</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.239030443898019</v>
@@ -13843,7 +13783,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.722455891125231</v>
+        <v>1.704698020229366</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.943215783513666</v>
@@ -13932,7 +13872,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.731414062061653</v>
+        <v>1.70980568668344</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.879992590030767</v>
@@ -14021,7 +13961,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.74357398749611</v>
+        <v>1.725877410089698</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.916769727144026</v>
@@ -14110,7 +14050,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.74233879185814</v>
+        <v>1.729605585539206</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.128426490582404</v>
@@ -14199,7 +14139,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.745316118135197</v>
+        <v>1.728460365451431</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.327560723130383</v>
@@ -14288,7 +14228,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.745420200846636</v>
+        <v>1.729196076288944</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.368618944136753</v>
@@ -14377,7 +14317,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.734313058909496</v>
+        <v>1.717961853319026</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.659984429490434</v>
@@ -14466,7 +14406,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.748268614172399</v>
+        <v>1.730403766132271</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.334804669109364</v>
@@ -14555,7 +14495,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.775880742460966</v>
+        <v>1.748217303475516</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.284954721736056</v>
@@ -14644,7 +14584,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.749636739469313</v>
+        <v>1.70389375026439</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.215954955075129</v>
@@ -14733,7 +14673,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.690430959820638</v>
+        <v>1.684541101430858</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.274052107786209</v>
@@ -15019,7 +14959,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.706231569791329</v>
+        <v>1.705177170805414</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.142842475139051</v>
@@ -15108,7 +15048,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.705083787760632</v>
+        <v>1.705312090935707</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.055184870356061</v>
@@ -15197,7 +15137,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.714484486347969</v>
+        <v>1.712951004517711</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.362597816314066</v>
@@ -15286,7 +15226,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.720287866073738</v>
+        <v>1.717026292358249</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.255764380205611</v>
@@ -15375,7 +15315,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.724667887784326</v>
+        <v>1.722977632135638</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.231984190866529</v>
@@ -15464,7 +15404,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.745476601885121</v>
+        <v>1.73730758595497</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.120968226660981</v>
@@ -15553,7 +15493,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.747489788687501</v>
+        <v>1.743132653991451</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.287870482758518</v>
@@ -15642,7 +15582,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.742910634756719</v>
+        <v>1.736927819850059</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.40856894083529</v>
@@ -15731,7 +15671,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.736633982254268</v>
+        <v>1.731705281332744</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.396109989288486</v>
@@ -15820,7 +15760,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.740393024474817</v>
+        <v>1.733271698928111</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.099296298396136</v>
@@ -15909,7 +15849,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.737198518253969</v>
+        <v>1.727777751595115</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.477275514984302</v>
@@ -15998,7 +15938,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.728560263494068</v>
+        <v>1.724715244985763</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.477737832723819</v>
@@ -16087,7 +16027,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.725189781527932</v>
+        <v>1.724714554357923</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.710314205112331</v>
@@ -16176,7 +16116,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.724732295412144</v>
+        <v>1.722320438098978</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.733721423173903</v>
@@ -16265,7 +16205,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.721685467543754</v>
+        <v>1.713864416222218</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.430697024821006</v>
@@ -16354,7 +16294,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.724888064759174</v>
+        <v>1.713333936329746</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.053775302516797</v>
@@ -16443,7 +16383,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.736104014239787</v>
+        <v>1.720245681673347</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.284135069776667</v>
@@ -16532,7 +16472,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.733216009126476</v>
+        <v>1.714165910912608</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.992721785546801</v>
@@ -16621,7 +16561,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.735192424387637</v>
+        <v>1.714897010497006</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.299825271907619</v>
@@ -16710,7 +16650,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.72757204957388</v>
+        <v>1.713029409982128</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.433829686835402</v>
@@ -16799,7 +16739,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.724798351569357</v>
+        <v>1.715008760913946</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.145030727825052</v>
@@ -16888,7 +16828,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.718654431402409</v>
+        <v>1.708578151740605</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.520011256427336</v>
@@ -16977,7 +16917,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.711852845459305</v>
+        <v>1.699537618731952</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.483803109449953</v>
@@ -17066,7 +17006,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.704906513339933</v>
+        <v>1.696064503487246</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.244443268915511</v>
@@ -17155,7 +17095,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.706321846907612</v>
+        <v>1.700091572893311</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.439956915743173</v>
@@ -17244,7 +17184,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.733683206312941</v>
+        <v>1.723877520875827</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.990265267962677</v>
@@ -17333,7 +17273,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.735363211555527</v>
+        <v>1.722927027182116</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.458512955747072</v>
@@ -17422,7 +17362,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.739440787908465</v>
+        <v>1.729714964765586</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.301747941508701</v>
@@ -17511,7 +17451,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.732917185698195</v>
+        <v>1.725469625438228</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.340544121037512</v>
@@ -17600,7 +17540,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.732689996265359</v>
+        <v>1.726659695403184</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.660094314065063</v>
@@ -17689,7 +17629,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.729305657422066</v>
+        <v>1.726429954614837</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.300716907672554</v>
@@ -17778,7 +17718,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.722286921748465</v>
+        <v>1.72712604838185</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.709074799115365</v>
@@ -17867,7 +17807,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.723284105428044</v>
+        <v>1.728934720663116</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.705134424834762</v>
@@ -17956,7 +17896,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.740466764505959</v>
+        <v>1.749616449089132</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.314207220383492</v>
@@ -18045,7 +17985,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.746695362684644</v>
+        <v>1.751000335640717</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.577334063655988</v>
@@ -18134,7 +18074,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.737739209425516</v>
+        <v>1.738328950530552</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.460450878224635</v>
@@ -18223,7 +18163,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.73393102892181</v>
+        <v>1.728571000948356</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.455297969759255</v>
@@ -18312,7 +18252,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.736556307130568</v>
+        <v>1.728240534343616</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.640739390822866</v>
@@ -18401,7 +18341,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.741430879954875</v>
+        <v>1.731270623296266</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.27749019480513</v>
@@ -18490,7 +18430,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.747546959855945</v>
+        <v>1.734572662249303</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.274375414956877</v>
@@ -18579,7 +18519,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.729856045842205</v>
+        <v>1.713160720824813</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.705372144570986</v>
@@ -18668,7 +18608,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.728093105206022</v>
+        <v>1.712911194826174</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.687133578340921</v>
@@ -18757,7 +18697,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.722284957269504</v>
+        <v>1.704478940311666</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.49229848180645</v>
@@ -18846,7 +18786,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.73943873825761</v>
+        <v>1.712604919518349</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.250527211461988</v>
@@ -18935,7 +18875,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.714748225209092</v>
+        <v>1.700092623131374</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.245755009335062</v>
@@ -19024,7 +18964,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.714548989817879</v>
+        <v>1.693747016693355</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.001994224476441</v>
@@ -19113,7 +19053,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.715771269883019</v>
+        <v>1.687673946664032</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.10967932890909</v>
@@ -19202,7 +19142,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.708546687487087</v>
+        <v>1.682129179992744</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.46599932499289</v>
@@ -19291,7 +19231,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.705406282804882</v>
+        <v>1.677074784509287</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.446936044948909</v>
@@ -19380,7 +19320,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.702702437272412</v>
+        <v>1.674044864139212</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.940634738005333</v>
@@ -19469,7 +19409,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.714601820312878</v>
+        <v>1.686990992797537</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.329279431591634</v>
@@ -19558,7 +19498,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.709896989844609</v>
+        <v>1.677661523457778</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.582839342688433</v>
@@ -19647,7 +19587,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.687280393160193</v>
+        <v>1.669510184506749</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.768309376999179</v>
@@ -19933,7 +19873,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.584560737916106</v>
+        <v>1.601159820762264</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.539365922046429</v>
@@ -20022,7 +19962,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.581275841914054</v>
+        <v>1.597820845731597</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.436707923881265</v>
@@ -20111,7 +20051,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.56213519402232</v>
+        <v>1.581204511379189</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.46274555143826</v>
@@ -20200,7 +20140,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.518116425388992</v>
+        <v>1.53934054339094</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.341472041119935</v>
@@ -20289,7 +20229,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.535922851728264</v>
+        <v>1.558958630077211</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.541120532735675</v>
@@ -20378,7 +20318,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.561842263642326</v>
+        <v>1.581312962807198</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.345472136916634</v>
@@ -20467,7 +20407,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.56267232396165</v>
+        <v>1.584597219288231</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.489113399250406</v>
@@ -20556,7 +20496,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.595477583809003</v>
+        <v>1.617337299472871</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.386205585852776</v>
@@ -20645,7 +20585,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.58365672980552</v>
+        <v>1.603828478318326</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.507472795431938</v>
@@ -20734,7 +20674,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.591445888574577</v>
+        <v>1.608913024522025</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.693093552832305</v>
@@ -20823,7 +20763,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.569096077724655</v>
+        <v>1.592531311420754</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.570595710970484</v>
@@ -20912,7 +20852,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.57865222810837</v>
+        <v>1.600995777461057</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.634741705257951</v>
@@ -21001,7 +20941,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.571005459660423</v>
+        <v>1.591855834818499</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.597562201051848</v>
@@ -21090,7 +21030,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.558870197653278</v>
+        <v>1.581069943193533</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.624995359526179</v>
@@ -21179,7 +21119,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.582908474527316</v>
+        <v>1.602133873835084</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.6108791201505</v>
@@ -21268,7 +21208,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.588786406250351</v>
+        <v>1.605651366602663</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.510278849979967</v>
@@ -21357,7 +21297,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.616771588069066</v>
+        <v>1.633664046189827</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.439002368618913</v>
@@ -21446,7 +21386,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.615698389068077</v>
+        <v>1.630732505462865</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.477555603849566</v>
@@ -21535,7 +21475,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.675386391037212</v>
+        <v>1.685095222788103</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.702231994678895</v>
@@ -21624,7 +21564,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.672238334835199</v>
+        <v>1.68593826754978</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.726380589519615</v>
@@ -21713,7 +21653,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.688054177162545</v>
+        <v>1.697920674691107</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.507626967031482</v>
@@ -21802,7 +21742,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.680264563434851</v>
+        <v>1.688098643721706</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.745458918708608</v>
@@ -21891,7 +21831,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.68736917997768</v>
+        <v>1.690474213658761</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.35871565920118</v>
@@ -21980,7 +21920,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.656468316620118</v>
+        <v>1.664610066929607</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.505399075634218</v>
@@ -22069,7 +22009,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.602578028051877</v>
+        <v>1.621319359944187</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.465453930072468</v>
@@ -22158,7 +22098,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.640135652608923</v>
+        <v>1.653047417066023</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.543823739730391</v>
@@ -22247,7 +22187,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.641836685091471</v>
+        <v>1.655088037217782</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.533435558358837</v>
@@ -22336,7 +22276,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.65425012381449</v>
+        <v>1.666705299733606</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.519428290166707</v>
@@ -22425,7 +22365,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.666871602496804</v>
+        <v>1.678414591045822</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.47436417204735</v>
@@ -22514,7 +22454,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.666877412516617</v>
+        <v>1.682791841221162</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.464902336040999</v>
@@ -22603,7 +22543,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.660829620981524</v>
+        <v>1.6786805890117</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.548868000180437</v>
@@ -22692,7 +22632,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.62563618555654</v>
+        <v>1.650478994233553</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.583662170242546</v>
@@ -22781,7 +22721,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.637388503924823</v>
+        <v>1.660485841916491</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.588277047978798</v>
@@ -22870,7 +22810,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.624736932986907</v>
+        <v>1.653327994396382</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.517315290057077</v>
@@ -22959,7 +22899,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.583085194451668</v>
+        <v>1.615408508830584</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.457932499922507</v>
@@ -23048,7 +22988,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.578415980332172</v>
+        <v>1.611854499965222</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.421621550156431</v>
@@ -23137,7 +23077,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.577819538390608</v>
+        <v>1.611444670911803</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.520478776108983</v>
@@ -23226,7 +23166,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.574364862787761</v>
+        <v>1.608177941512638</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.515607832951885</v>
@@ -23315,7 +23255,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.62115384407989</v>
+        <v>1.648466867961413</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.52748217813599</v>
@@ -23404,7 +23344,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.659055339962271</v>
+        <v>1.683595336917943</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.337159330948882</v>
@@ -23493,7 +23433,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.655802029831106</v>
+        <v>1.677246920267874</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.332564671278395</v>
@@ -23582,7 +23522,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.659588627833517</v>
+        <v>1.683083899778703</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.430318344771419</v>
@@ -23671,7 +23611,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.626603284055804</v>
+        <v>1.649062038107346</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.439375749950331</v>
@@ -23760,7 +23700,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.62674807803717</v>
+        <v>1.639817797554322</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.404968002720769</v>
@@ -23849,7 +23789,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.59871588228096</v>
+        <v>1.6249957957702</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.431129503118507</v>
@@ -23938,7 +23878,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.581256562636111</v>
+        <v>1.60777469404741</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.531950782223926</v>
@@ -24027,7 +23967,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.607731565184674</v>
+        <v>1.628308308292622</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.455293924299734</v>
@@ -24116,7 +24056,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.606147100095539</v>
+        <v>1.626328652648381</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.318205327883768</v>
@@ -24205,7 +24145,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.620477341676126</v>
+        <v>1.638407711372246</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.290281602702771</v>
@@ -24294,7 +24234,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.670608336454559</v>
+        <v>1.680504836774351</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.834714749165169</v>
@@ -24383,7 +24323,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.679953510884818</v>
+        <v>1.688922674729266</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.777923082135886</v>
@@ -24472,7 +24412,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.662967337663542</v>
+        <v>1.643675586907295</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.089878947123666</v>
@@ -24561,7 +24501,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.605038480656649</v>
+        <v>1.623369861295</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.097998170371799</v>
@@ -24847,7 +24787,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.587540286901125</v>
+        <v>1.585793028874615</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.549328121287604</v>
@@ -24936,7 +24876,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.590356154342794</v>
+        <v>1.584420749323399</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.550427161834248</v>
@@ -25025,7 +24965,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.599902395614894</v>
+        <v>1.595047766950685</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.46894136268483</v>
@@ -25114,7 +25054,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.62505256998668</v>
+        <v>1.610477192169375</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.599281473648932</v>
@@ -25203,7 +25143,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.623758253315245</v>
+        <v>1.607121278831154</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.898464404032528</v>
@@ -25292,7 +25232,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.627704296926885</v>
+        <v>1.613271871656997</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.251265514432114</v>
@@ -25381,7 +25321,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.627455949029506</v>
+        <v>1.616465703857101</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.163417191280025</v>
@@ -25470,7 +25410,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.626881635654285</v>
+        <v>1.611219296392183</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.072330073917584</v>
@@ -25559,7 +25499,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.625620523541737</v>
+        <v>1.613679792042909</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.098751404581238</v>
@@ -25648,7 +25588,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.612802471053118</v>
+        <v>1.601878382934939</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.841542448073957</v>
@@ -25737,7 +25677,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.637072832893311</v>
+        <v>1.613259263828019</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.898817586106694</v>
@@ -25826,7 +25766,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.602986191569225</v>
+        <v>1.599576535322133</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.806522150182516</v>
@@ -25915,7 +25855,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.595392244721149</v>
+        <v>1.590337221437553</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.631441406172235</v>
@@ -26004,7 +25944,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.600392329198096</v>
+        <v>1.596893618313708</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.82038096649504</v>
@@ -26093,7 +26033,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.591470708837228</v>
+        <v>1.588180387802884</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.613294401322851</v>
@@ -26182,7 +26122,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.587910795260601</v>
+        <v>1.587150555087753</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.698673771565086</v>
@@ -26271,7 +26211,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.598601402729039</v>
+        <v>1.602403927943793</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.756231738895095</v>
@@ -26360,7 +26300,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.604534292513384</v>
+        <v>1.604692477928877</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.625767368747169</v>
@@ -26449,7 +26389,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.613414874415066</v>
+        <v>1.607741700856826</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.719737347504468</v>
@@ -26538,7 +26478,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.609784163682894</v>
+        <v>1.607745468967646</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.660133912447438</v>
@@ -26627,7 +26567,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.602497462912775</v>
+        <v>1.600174599891577</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.602486282183589</v>
@@ -26716,7 +26656,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.612962712221072</v>
+        <v>1.607232128065309</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.548008772169891</v>
@@ -26805,7 +26745,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.612151368192054</v>
+        <v>1.611090368100336</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.634017593090298</v>
@@ -26894,7 +26834,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.623103781122137</v>
+        <v>1.622663172785595</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.636454710630141</v>
@@ -26983,7 +26923,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.629010078875936</v>
+        <v>1.630364440918058</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.635200927731748</v>
@@ -27072,7 +27012,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.661296126669424</v>
+        <v>1.654611659605181</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.327808727293128</v>
@@ -27161,7 +27101,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.668270408162231</v>
+        <v>1.663266430246505</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.958335246848868</v>
@@ -27250,7 +27190,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.678479759930055</v>
+        <v>1.673199984050176</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.974778758780063</v>
@@ -27339,7 +27279,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.662323135497897</v>
+        <v>1.661896838777669</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.979151486111375</v>
@@ -27428,7 +27368,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.650587931473736</v>
+        <v>1.652593719921083</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.886505351485403</v>
@@ -27517,7 +27457,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.660996976918758</v>
+        <v>1.662724264021117</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.748370449471749</v>
@@ -27606,7 +27546,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.659303230963458</v>
+        <v>1.656780407607214</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.913650957575276</v>
@@ -27695,7 +27635,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.653893572337636</v>
+        <v>1.656416310290972</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.708869043244926</v>
@@ -27784,7 +27724,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.673837784400753</v>
+        <v>1.676263832458176</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.827670292582412</v>
@@ -27873,7 +27813,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.690665442728064</v>
+        <v>1.678052678273146</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.733065483086404</v>
@@ -27962,7 +27902,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.681859261111594</v>
+        <v>1.674203913152122</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.650963846594516</v>
@@ -28051,7 +27991,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.6841428233195</v>
+        <v>1.672313089065831</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.790505604629723</v>
@@ -28140,7 +28080,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.68688128827459</v>
+        <v>1.674513288319308</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.745998335829071</v>
@@ -28229,7 +28169,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.685361459074078</v>
+        <v>1.668122027036515</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.751822495234451</v>
@@ -28318,7 +28258,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.684901681555778</v>
+        <v>1.662705833397435</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.644760635230329</v>
@@ -28407,7 +28347,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.669850034983596</v>
+        <v>1.651774557384129</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.741064751563902</v>
@@ -28496,7 +28436,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.675355306314516</v>
+        <v>1.6553572564681</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.684828400754347</v>
@@ -28585,7 +28525,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.674108425125656</v>
+        <v>1.651659706237758</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.519565067008176</v>
@@ -28674,7 +28614,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.688689672842272</v>
+        <v>1.652446174786017</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.735063936197267</v>
@@ -28763,7 +28703,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.681428934800472</v>
+        <v>1.656897720791209</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.569496358390695</v>
@@ -28852,7 +28792,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.671285693808249</v>
+        <v>1.646831398933946</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.756942047881762</v>
@@ -28941,7 +28881,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.665415877078827</v>
+        <v>1.643679742166831</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.710191206816933</v>
@@ -29030,7 +28970,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.660075830560147</v>
+        <v>1.638162633791133</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.70554568030152</v>
@@ -29119,7 +29059,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.653598904310443</v>
+        <v>1.634262818948462</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.652103799441445</v>
@@ -29208,7 +29148,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.659748860235397</v>
+        <v>1.644634969586266</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.713125308293353</v>
@@ -29297,7 +29237,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.671071845362871</v>
+        <v>1.660283814785212</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.877233684003405</v>
@@ -29386,7 +29326,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.640167349433403</v>
+        <v>1.604125904412983</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.964650867411909</v>
@@ -29475,7 +29415,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.579743088008326</v>
+        <v>1.581641267263449</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.007584321256588</v>
@@ -29761,7 +29701,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.566189907627559</v>
+        <v>1.582363197062284</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.560851866310859</v>
@@ -29850,7 +29790,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.570667345324462</v>
+        <v>1.588668451787437</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.440286603805639</v>
@@ -29939,7 +29879,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.595886883417841</v>
+        <v>1.613038081680035</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.335899059541655</v>
@@ -30028,7 +29968,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.597199699191405</v>
+        <v>1.61888130487081</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.318754884361688</v>
@@ -30117,7 +30057,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.607367092704216</v>
+        <v>1.630147075465376</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.028608347889195</v>
@@ -30206,7 +30146,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.607141098599653</v>
+        <v>1.631961161107498</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.399697034456004</v>
@@ -30295,7 +30235,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.619940911956667</v>
+        <v>1.645551786119418</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.394426839001727</v>
@@ -30384,7 +30324,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.62877280170225</v>
+        <v>1.655653009450773</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.258423574970208</v>
@@ -30473,7 +30413,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.631636241742739</v>
+        <v>1.662401604708766</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.155288460228604</v>
@@ -30562,7 +30502,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.643047203636663</v>
+        <v>1.67213012542139</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.769785857990054</v>
@@ -30651,7 +30591,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.658059775481143</v>
+        <v>1.684593590794931</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.360114085996462</v>
@@ -30740,7 +30680,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.643560606075116</v>
+        <v>1.673149457008488</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.270570264915276</v>
@@ -30829,7 +30769,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.64730136695292</v>
+        <v>1.678390946682612</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.048485157108027</v>
@@ -30918,7 +30858,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.651682142988679</v>
+        <v>1.681651606514407</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.24208712172758</v>
@@ -31007,7 +30947,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.653494490214154</v>
+        <v>1.681370007473132</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.393309267376339</v>
@@ -31096,7 +31036,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.655799491785344</v>
+        <v>1.685046960058818</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.855533218204245</v>
@@ -31185,7 +31125,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.670416782842053</v>
+        <v>1.702525034377596</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.092904025856853</v>
@@ -31274,7 +31214,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.662219408132352</v>
+        <v>1.692800838324935</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.840026265394803</v>
@@ -31363,7 +31303,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.674665658799205</v>
+        <v>1.700565179101222</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.761112514243666</v>
@@ -31452,7 +31392,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.668402023224164</v>
+        <v>1.699684900671684</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.113964099270933</v>
@@ -31541,7 +31481,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.664037064998527</v>
+        <v>1.697093233332707</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.149216304989523</v>
@@ -31630,7 +31570,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.654329022138813</v>
+        <v>1.691729224967022</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.186339929161388</v>
@@ -31719,7 +31659,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.655512902870204</v>
+        <v>1.690103167976522</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.021613032007129</v>
@@ -31808,7 +31748,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.656857324257945</v>
+        <v>1.692035261060713</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.377041975525253</v>
@@ -31897,7 +31837,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.646939761694217</v>
+        <v>1.679868947283171</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.363958234428714</v>
@@ -31986,7 +31926,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.654549750674879</v>
+        <v>1.69225906814532</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.659217466800638</v>
@@ -32075,7 +32015,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.664957225597335</v>
+        <v>1.703228865132662</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.087770246840325</v>
@@ -32164,7 +32104,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.676122380816149</v>
+        <v>1.718022163913487</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.354098398901716</v>
@@ -32253,7 +32193,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.67614431945026</v>
+        <v>1.721887204325053</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.961599048750113</v>
@@ -32342,7 +32282,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.67154846168251</v>
+        <v>1.719072059316595</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.211390603421076</v>
@@ -32431,7 +32371,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.67295445727556</v>
+        <v>1.724774559001993</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.201070969990091</v>
@@ -32520,7 +32460,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.670578014420297</v>
+        <v>1.722374798900565</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.282081994824771</v>
@@ -32609,7 +32549,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.684251305095725</v>
+        <v>1.736797659093045</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.335391979109141</v>
@@ -32698,7 +32638,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.702289206540326</v>
+        <v>1.760199687902072</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.338551155001737</v>
@@ -32787,7 +32727,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.709373539110851</v>
+        <v>1.765857776506078</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.103895320642778</v>
@@ -32876,7 +32816,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.706067958736575</v>
+        <v>1.765326528206957</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.479905416170483</v>
@@ -32965,7 +32905,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.705330148437465</v>
+        <v>1.759116797286311</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.383108492393359</v>
@@ -33054,7 +32994,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.699864899858389</v>
+        <v>1.75658941005102</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.658089824385142</v>
@@ -33143,7 +33083,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.70684985536569</v>
+        <v>1.765913198867567</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.609897485010835</v>
@@ -33232,7 +33172,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.717715783583383</v>
+        <v>1.780165244365312</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.283546635318944</v>
@@ -33321,7 +33261,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.71082857122722</v>
+        <v>1.771713388256283</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.705731008634825</v>
@@ -33410,7 +33350,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.710480863990672</v>
+        <v>1.769747313523452</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.475490709593901</v>
@@ -33499,7 +33439,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.701013955588078</v>
+        <v>1.754858850697138</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.099637482368749</v>
@@ -33588,7 +33528,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.710699325793849</v>
+        <v>1.761042075178199</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.471864773536404</v>
@@ -33677,7 +33617,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.690577287795832</v>
+        <v>1.747106911883532</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.30901242359496</v>
@@ -33766,7 +33706,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.689419966764778</v>
+        <v>1.743125251685334</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.054777044646068</v>
@@ -33855,7 +33795,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.696263599060809</v>
+        <v>1.74709491085373</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.945950258207787</v>
@@ -33944,7 +33884,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.685658079103082</v>
+        <v>1.740509032905022</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.406064873423</v>
@@ -34033,7 +33973,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.687118348206138</v>
+        <v>1.742057951952307</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.147541500905433</v>
@@ -34122,7 +34062,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.694919396439293</v>
+        <v>1.749611084140247</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.335255218345001</v>
@@ -34211,7 +34151,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.70775366225054</v>
+        <v>1.765902365081412</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.425354097954197</v>
@@ -34300,7 +34240,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.711725163958618</v>
+        <v>1.758654266932791</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.724919201573092</v>
@@ -34389,7 +34329,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.7020427727176</v>
+        <v>1.765497244502077</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.705848488988429</v>
